--- a/Team-Data/2008-09/1-1-2008-09.xlsx
+++ b/Team-Data/2008-09/1-1-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>5</v>
@@ -774,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -848,103 +915,103 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.844</v>
+        <v>0.848</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
         <v>75.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.369</v>
+        <v>0.365</v>
       </c>
       <c r="O3" t="n">
         <v>21.9</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -956,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,16 +1053,16 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1120,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.419</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.794</v>
       </c>
       <c r="R5" t="n">
         <v>11.5</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,43 +1342,43 @@
         <v>5.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.8</v>
+        <v>20.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1323,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1335,34 +1402,34 @@
         <v>13</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
         <v>24</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.867</v>
+        <v>0.839</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="J6" t="n">
-        <v>79.2</v>
+        <v>78.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.343</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>41.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>101.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1505,43 +1572,43 @@
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>12</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1669,10 +1736,10 @@
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1681,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
         <v>23</v>
@@ -1717,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -1842,16 +1909,16 @@
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1881,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>19</v>
@@ -1896,16 +1963,16 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -2027,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2072,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
@@ -2251,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>19</v>
@@ -2269,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -2388,19 +2455,19 @@
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2418,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2430,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2612,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>3</v>
@@ -2624,10 +2691,10 @@
         <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2764,7 +2831,7 @@
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2788,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>19</v>
@@ -2803,7 +2870,7 @@
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -2850,91 +2917,91 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.828</v>
+        <v>0.833</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2958,37 +3025,37 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS14" t="n">
         <v>5</v>
       </c>
-      <c r="AS14" t="n">
-        <v>6</v>
-      </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
@@ -2997,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3143,7 +3210,7 @@
         <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3346,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
@@ -3355,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>0.469</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,46 +3481,46 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R17" t="n">
         <v>12.8</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>43.8</v>
+        <v>43.4</v>
       </c>
       <c r="U17" t="n">
         <v>20.7</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
         <v>3.5</v>
@@ -3462,31 +3529,31 @@
         <v>5.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
         <v>96.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>26</v>
@@ -3510,34 +3577,34 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>10</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>20</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3710,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3868,10 +3935,10 @@
         <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>7</v>
@@ -3910,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4071,10 +4138,10 @@
         <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>22</v>
@@ -4432,7 +4499,7 @@
         <v>15</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
         <v>26</v>
@@ -4450,7 +4517,7 @@
         <v>20</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4584,7 +4651,7 @@
         <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4599,7 +4666,7 @@
         <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>8</v>
@@ -4611,7 +4678,7 @@
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4769,7 +4836,7 @@
         <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4793,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4814,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4996,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.645</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
         <v>7.9</v>
       </c>
       <c r="M26" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.779</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
@@ -5091,46 +5158,46 @@
         <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,19 +5206,19 @@
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN26" t="n">
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5166,25 +5233,25 @@
         <v>16</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA26" t="n">
         <v>17</v>
       </c>
-      <c r="BA26" t="n">
-        <v>16</v>
-      </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5330,7 +5397,7 @@
         <v>18</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5676,7 +5743,7 @@
         <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>16</v>
@@ -5688,13 +5755,13 @@
         <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5922,7 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5897,10 +5964,10 @@
         <v>29</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-1-2008-09</t>
+          <t>2009-01-01</t>
         </is>
       </c>
     </row>
